--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>1.564940711320844</v>
       </c>
-      <c r="BA2">
-        <v>1.564940711320844</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>1.162075383241174</v>
       </c>
-      <c r="BA3">
-        <v>1.162075383241174</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>1.324801310034943</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C4">
         <v>0.9623985945846414</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>0.9623985945846414</v>
       </c>
-      <c r="BA4">
-        <v>0.9623985945846414</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>1.325042362893598</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C5">
         <v>-0.2625025240627394</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>-0.2625025240627394</v>
       </c>
-      <c r="BA5">
-        <v>-0.2625025240627394</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>1.325282820799245</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C6">
-        <v>0.5533810230800498</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D6">
         <v>-2.717991563576632</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>-2.717991563576632</v>
       </c>
-      <c r="BA6">
-        <v>-2.717991563576632</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C7">
-        <v>1.295302013422827</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D7">
         <v>-0.8018087606025261</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>-0.8018087606025261</v>
       </c>
-      <c r="BA7">
-        <v>-0.8018087606025261</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C8">
-        <v>1.298615252103602</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D8">
-        <v>-0.2187281672125749</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E8">
         <v>-2.540735588184205</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>-2.540735588184205</v>
       </c>
-      <c r="BA8">
-        <v>-2.540735588184205</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C9">
-        <v>1.08574792334359</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D9">
-        <v>0.143861260631482</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E9">
         <v>0.4798059474883161</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>0.4798059474883161</v>
       </c>
-      <c r="BA9">
-        <v>0.4798059474883161</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C10">
-        <v>1.093497250080873</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D10">
-        <v>0.325330619473263</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E10">
-        <v>0.5403560268265863</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F10">
         <v>2.996743291460049</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>2.996743291460049</v>
       </c>
-      <c r="BA10">
-        <v>2.996743291460049</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C11">
-        <v>0.9726061807905402</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D11">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E11">
-        <v>0.8468734727585172</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F11">
         <v>1.766782973262963</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>1.766782973262963</v>
       </c>
-      <c r="BA11">
-        <v>1.766782973262963</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C12">
-        <v>0.9726061807905402</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D12">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E12">
-        <v>0.8558739279972656</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F12">
-        <v>1.299999999999969</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G12">
         <v>1.792707332192279</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>1.792707332192279</v>
       </c>
-      <c r="BA12">
-        <v>1.792707332192279</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>1.340428517657961</v>
+        <v>1.363508047281009</v>
       </c>
       <c r="C13">
-        <v>0.9726061807905402</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D13">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E13">
-        <v>0.8749726708661569</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F13">
-        <v>0.8000000000000256</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G13">
         <v>1.599999999999994</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>1.599999999999994</v>
       </c>
-      <c r="BA13">
-        <v>1.599999999999994</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>1.340428517657961</v>
-      </c>
       <c r="C14">
-        <v>0.9726061807905402</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D14">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E14">
-        <v>0.8785736706433624</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F14">
-        <v>0.5999999999999943</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G14">
-        <v>1.299999999999983</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H14">
         <v>1.983944815439088</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>1.983944815439088</v>
       </c>
-      <c r="BA14">
-        <v>1.983944815439088</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>1.340428517657961</v>
-      </c>
       <c r="C15">
-        <v>0.9726061807905402</v>
+        <v>0.85672804127098</v>
       </c>
       <c r="D15">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E15">
-        <v>-0.1846582719845898</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F15">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G15">
-        <v>1.299999999999969</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H15">
         <v>1.027205282249909</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>1.027205282249909</v>
       </c>
-      <c r="BA15">
-        <v>1.027205282249909</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>1.340428517657961</v>
-      </c>
-      <c r="C16">
-        <v>0.9726061807905402</v>
-      </c>
       <c r="D16">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E16">
-        <v>-0.1846582719845898</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F16">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G16">
-        <v>1.599999999999994</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H16">
-        <v>1.200000000000003</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I16">
         <v>1.892417316869597</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>1.892417316869597</v>
       </c>
-      <c r="BA16">
-        <v>1.892417316869597</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.9726061807905402</v>
-      </c>
       <c r="D17">
-        <v>0.01750839486632576</v>
+        <v>-0.01548135984920636</v>
       </c>
       <c r="E17">
-        <v>-0.1846582719845898</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F17">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G17">
-        <v>1.799999999999997</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H17">
-        <v>1.499999999999986</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I17">
         <v>1.727088565964991</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>1.727088565964991</v>
       </c>
-      <c r="BA17">
-        <v>1.727088565964991</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.9726061807905402</v>
-      </c>
-      <c r="D18">
-        <v>0.01750839486632576</v>
-      </c>
       <c r="E18">
-        <v>-0.1846582719845898</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F18">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G18">
-        <v>1.800000000000026</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H18">
-        <v>1.599999999999994</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I18">
-        <v>1.590915375251328</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J18">
         <v>0.4000000000000057</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA18">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.9726061807905402</v>
-      </c>
-      <c r="D19">
-        <v>0.01750839486632576</v>
-      </c>
       <c r="E19">
-        <v>-0.1846582719845898</v>
+        <v>-0.2692272249738909</v>
       </c>
       <c r="F19">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G19">
-        <v>1.643603954440357</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H19">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I19">
-        <v>1.703562173521391</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J19">
         <v>0.5999999999999943</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA19">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.9726061807905402</v>
-      </c>
-      <c r="D20">
-        <v>0.01750839486632576</v>
-      </c>
-      <c r="E20">
-        <v>-0.1846582719845898</v>
-      </c>
       <c r="F20">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G20">
-        <v>1.643603954440357</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H20">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I20">
-        <v>1.878254467120129</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J20">
-        <v>1.200000000000003</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K20">
         <v>1.295244683175738</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>1.295244683175738</v>
       </c>
-      <c r="BA20">
-        <v>1.295244683175738</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.1846582719845898</v>
-      </c>
       <c r="F21">
-        <v>0.1620293775785214</v>
+        <v>0.2609708464931885</v>
       </c>
       <c r="G21">
-        <v>1.643603954440357</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H21">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I21">
-        <v>1.966036868385189</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J21">
-        <v>1.499999999999986</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K21">
         <v>0.5000000000000142</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>0.5000000000000142</v>
       </c>
-      <c r="BA21">
-        <v>0.5000000000000142</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1846582719845898</v>
-      </c>
-      <c r="F22">
-        <v>0.1620293775785214</v>
-      </c>
       <c r="G22">
-        <v>1.643603954440357</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H22">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I22">
-        <v>2.006045911410865</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J22">
-        <v>1.499999999999986</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L22">
         <v>-0.1007444012410019</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>-0.1007444012410019</v>
       </c>
-      <c r="BA22">
-        <v>-0.1007444012410019</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1846582719845898</v>
-      </c>
-      <c r="F23">
-        <v>0.1620293775785214</v>
-      </c>
       <c r="G23">
-        <v>1.643603954440357</v>
+        <v>0.327539970256214</v>
       </c>
       <c r="H23">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I23">
-        <v>1.737547077621248</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J23">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K23">
-        <v>1.600005087957896</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L23">
         <v>0.399975276622385</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.399975276622385</v>
       </c>
-      <c r="BA23">
-        <v>0.399975276622385</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1846582719845898</v>
-      </c>
-      <c r="F24">
-        <v>0.1620293775785214</v>
-      </c>
-      <c r="G24">
-        <v>1.643603954440357</v>
-      </c>
       <c r="H24">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I24">
-        <v>1.737547077621248</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J24">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K24">
-        <v>1.599999542254579</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L24">
-        <v>1.100002624357501</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>2</v>
       </c>
-      <c r="BA24">
-        <v>2</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>1.643603954440357</v>
-      </c>
       <c r="H25">
-        <v>1.594718964209258</v>
+        <v>0.5586653729729235</v>
       </c>
       <c r="I25">
-        <v>1.737547077621248</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J25">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K25">
-        <v>1.299997956283505</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L25">
-        <v>1.500015302367459</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M25">
         <v>1.1</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>1.1</v>
       </c>
-      <c r="BA25">
-        <v>1.1</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>1.643603954440357</v>
-      </c>
-      <c r="H26">
-        <v>1.594718964209258</v>
-      </c>
       <c r="I26">
-        <v>1.737547077621248</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J26">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K26">
-        <v>1.299998938007363</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L26">
-        <v>1.600003068406778</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M26">
-        <v>1.4</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N26">
         <v>1.292635181922734</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>1.292635181922734</v>
       </c>
-      <c r="BA26">
-        <v>1.292635181922734</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>1.643603954440357</v>
-      </c>
-      <c r="H27">
-        <v>1.594718964209258</v>
-      </c>
       <c r="I27">
-        <v>1.737547077621248</v>
+        <v>1.272595993674298</v>
       </c>
       <c r="J27">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K27">
-        <v>1.132233477364409</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L27">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N27">
         <v>1.682020243440505</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>1.682020243440505</v>
       </c>
-      <c r="BA27">
-        <v>1.682020243440505</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>1.643603954440357</v>
-      </c>
-      <c r="H28">
-        <v>1.594718964209258</v>
-      </c>
-      <c r="I28">
-        <v>1.737547077621248</v>
-      </c>
       <c r="J28">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K28">
-        <v>1.132233477364409</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L28">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M28">
-        <v>1.6</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N28">
-        <v>1.785400977180075</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O28">
         <v>1.012497979540356</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>1.012497979540356</v>
       </c>
-      <c r="BA28">
-        <v>1.012497979540356</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>1.737547077621248</v>
-      </c>
       <c r="J29">
-        <v>1.343065598052355</v>
+        <v>1.578688957743887</v>
       </c>
       <c r="K29">
-        <v>1.132233477364409</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L29">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M29">
-        <v>1.7</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N29">
-        <v>1.865520190697808</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O29">
         <v>1.634557118349079</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>1.634557118349079</v>
       </c>
-      <c r="BA29">
-        <v>1.634557118349079</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>1.737547077621248</v>
-      </c>
-      <c r="J30">
-        <v>1.343065598052355</v>
-      </c>
       <c r="K30">
-        <v>1.132233477364409</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L30">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N30">
-        <v>1.954289383743401</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O30">
-        <v>1.69089070224689</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P30">
         <v>0.8971548841028039</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.8971548841028039</v>
       </c>
-      <c r="BA30">
-        <v>0.8971548841028039</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>1.737547077621248</v>
-      </c>
-      <c r="J31">
-        <v>1.343065598052355</v>
-      </c>
       <c r="K31">
-        <v>1.132233477364409</v>
+        <v>1.281860799589161</v>
       </c>
       <c r="L31">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M31">
-        <v>1.18992308753814</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N31">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O31">
-        <v>1.707900952539077</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P31">
         <v>1.102490924221428</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>1.102490924221428</v>
       </c>
-      <c r="BA31">
-        <v>1.102490924221428</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>1.737547077621248</v>
-      </c>
-      <c r="J32">
-        <v>1.343065598052355</v>
-      </c>
-      <c r="K32">
-        <v>1.132233477364409</v>
-      </c>
       <c r="L32">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M32">
-        <v>1.18992308753814</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N32">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O32">
-        <v>1.700581654411451</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P32">
-        <v>1.449999999999974</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q32">
         <v>0.9984536597660991</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>0.9984536597660991</v>
       </c>
-      <c r="BA32">
-        <v>0.9984536597660991</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>1.132233477364409</v>
-      </c>
       <c r="L33">
-        <v>0.9021585119653863</v>
+        <v>0.972513153908072</v>
       </c>
       <c r="M33">
-        <v>1.18992308753814</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N33">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O33">
-        <v>1.758637329982406</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P33">
-        <v>1.649999999999991</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q33">
         <v>1.495216092286043</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>1.495216092286043</v>
       </c>
-      <c r="BA33">
-        <v>1.495216092286043</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>1.132233477364409</v>
-      </c>
-      <c r="L34">
-        <v>0.9021585119653863</v>
-      </c>
       <c r="M34">
-        <v>1.18992308753814</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N34">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O34">
-        <v>1.761065183524281</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P34">
-        <v>1.750000000000057</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q34">
-        <v>1.525479407672719</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R34">
         <v>1.345302727311861</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>1.345302727311861</v>
       </c>
-      <c r="BA34">
-        <v>1.345302727311861</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>1.132233477364409</v>
-      </c>
-      <c r="L35">
-        <v>0.9021585119653863</v>
-      </c>
       <c r="M35">
-        <v>1.18992308753814</v>
+        <v>0.9813981441391724</v>
       </c>
       <c r="N35">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O35">
-        <v>1.534078634595678</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P35">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q35">
-        <v>1.43406346513153</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R35">
         <v>1.428495556385869</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>1.428495556385869</v>
       </c>
-      <c r="BA35">
-        <v>1.428495556385869</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>1.132233477364409</v>
-      </c>
-      <c r="L36">
-        <v>0.9021585119653863</v>
-      </c>
-      <c r="M36">
-        <v>1.18992308753814</v>
-      </c>
       <c r="N36">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O36">
-        <v>1.534078634595678</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P36">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q36">
-        <v>1.394827935964926</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R36">
-        <v>1.38895726780008</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S36">
         <v>0.7394362573787987</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.7394362573787987</v>
       </c>
-      <c r="BA36">
-        <v>0.7394362573787987</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>1.18992308753814</v>
-      </c>
       <c r="N37">
-        <v>1.247909685236592</v>
+        <v>0.9169130983920374</v>
       </c>
       <c r="O37">
-        <v>1.534078634595678</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P37">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q37">
-        <v>1.297983098294097</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R37">
-        <v>1.323376906487923</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S37">
         <v>1.299999999999983</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>1.299999999999983</v>
       </c>
-      <c r="BA37">
-        <v>1.299999999999983</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>1.18992308753814</v>
-      </c>
-      <c r="N38">
-        <v>1.247909685236592</v>
-      </c>
       <c r="O38">
-        <v>1.534078634595678</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P38">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q38">
-        <v>1.298079628333952</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R38">
-        <v>1.273378434540362</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S38">
-        <v>1.300000000000011</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T38">
         <v>1.233394657233262</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>1.233394657233262</v>
       </c>
-      <c r="BA38">
-        <v>1.233394657233262</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>1.18992308753814</v>
-      </c>
-      <c r="N39">
-        <v>1.247909685236592</v>
-      </c>
       <c r="O39">
-        <v>1.534078634595678</v>
+        <v>1.081618608180981</v>
       </c>
       <c r="P39">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q39">
-        <v>1.307830621412268</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R39">
-        <v>1.244206465169853</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S39">
-        <v>1.200438691058508</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T39">
         <v>1.297884859680252</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>1.297884859680252</v>
       </c>
-      <c r="BA39">
-        <v>1.297884859680252</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>1.18992308753814</v>
-      </c>
-      <c r="N40">
-        <v>1.247909685236592</v>
-      </c>
-      <c r="O40">
-        <v>1.534078634595678</v>
-      </c>
       <c r="P40">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q40">
-        <v>1.307830621412268</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R40">
-        <v>1.213269603306941</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S40">
-        <v>1.200000000000003</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T40">
-        <v>1.188396168593854</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U40">
         <v>1.637264503497377</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>1.637264503497377</v>
       </c>
-      <c r="BA40">
-        <v>1.637264503497377</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>1.534078634595678</v>
-      </c>
       <c r="P41">
-        <v>1.357135633157693</v>
+        <v>1.102058720695829</v>
       </c>
       <c r="Q41">
-        <v>1.307830621412268</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R41">
-        <v>1.174392625558269</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S41">
-        <v>1.200000000000017</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T41">
-        <v>1.19999999999996</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U41">
         <v>1.331979115623398</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>1.331979115623398</v>
       </c>
-      <c r="BA41">
-        <v>1.331979115623398</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>1.534078634595678</v>
-      </c>
-      <c r="P42">
-        <v>1.357135633157693</v>
-      </c>
       <c r="Q42">
-        <v>1.307830621412268</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R42">
-        <v>1.11999999999999</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S42">
-        <v>1.199999999999974</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T42">
-        <v>1.200000000000017</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U42">
-        <v>1.254756557140297</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V42">
         <v>1.795921598270084</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>1.795921598270084</v>
       </c>
-      <c r="BA42">
-        <v>1.795921598270084</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>1.534078634595678</v>
-      </c>
-      <c r="P43">
-        <v>1.357135633157693</v>
-      </c>
       <c r="Q43">
-        <v>1.307830621412268</v>
+        <v>1.321502608362905</v>
       </c>
       <c r="R43">
-        <v>1.300659567884719</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S43">
-        <v>1.240888932442107</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T43">
-        <v>1.20000998998195</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U43">
-        <v>1.180476073897637</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V43">
-        <v>1.259051018419825</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W43">
         <v>1.327129713066284</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>1.327129713066284</v>
       </c>
-      <c r="BA43">
-        <v>1.327129713066284</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>1.534078634595678</v>
-      </c>
-      <c r="P44">
-        <v>1.357135633157693</v>
-      </c>
-      <c r="Q44">
-        <v>1.307830621412268</v>
-      </c>
       <c r="R44">
-        <v>1.300659567884719</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S44">
-        <v>1.240888932442107</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T44">
-        <v>1.200000000000003</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U44">
-        <v>1.177968505377919</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V44">
-        <v>1.248225394826875</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W44">
-        <v>1.133897030360657</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X44">
         <v>1.15883627336575</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>1.15883627336575</v>
       </c>
-      <c r="BA44">
-        <v>1.15883627336575</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>1.307830621412268</v>
-      </c>
       <c r="R45">
-        <v>1.300659567884719</v>
+        <v>1.288882436732678</v>
       </c>
       <c r="S45">
-        <v>1.240888932442107</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T45">
-        <v>1.200000000000003</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U45">
-        <v>1.177985483013714</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V45">
-        <v>1.23267744128168</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W45">
-        <v>1.156033273165875</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X45">
-        <v>1.07815639196258</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y45">
         <v>1.076058203620576</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>1.076058203620576</v>
       </c>
-      <c r="BA45">
-        <v>1.076058203620576</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>1.307830621412268</v>
-      </c>
-      <c r="R46">
-        <v>1.300659567884719</v>
-      </c>
       <c r="S46">
-        <v>1.240888932442107</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T46">
-        <v>1.19999999999996</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U46">
-        <v>1.178002451257697</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V46">
-        <v>1.217111491404864</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W46">
-        <v>1.156101091881951</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X46">
-        <v>1.156346564074198</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y46">
-        <v>1.235627072435449</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z46">
         <v>0.3</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.3</v>
       </c>
-      <c r="BA46">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>1.307830621412268</v>
-      </c>
-      <c r="R47">
-        <v>1.300659567884719</v>
-      </c>
       <c r="S47">
-        <v>1.240888932442107</v>
+        <v>1.195360519934232</v>
       </c>
       <c r="T47">
-        <v>1.221968567548924</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U47">
-        <v>1.276971220672154</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V47">
-        <v>1.217677114878327</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W47">
-        <v>1.156248442656093</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X47">
-        <v>1.195404621201419</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y47">
-        <v>1.197008278629895</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z47">
-        <v>1.2</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA47">
         <v>2.40590956953757</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>2.40590956953757</v>
       </c>
-      <c r="BA47">
-        <v>2.40590956953757</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>1.307830621412268</v>
-      </c>
-      <c r="R48">
-        <v>1.300659567884719</v>
-      </c>
-      <c r="S48">
-        <v>1.240888932442107</v>
-      </c>
       <c r="T48">
-        <v>1.221968567548924</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U48">
-        <v>1.276971220672154</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V48">
-        <v>1.217388890890092</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W48">
-        <v>1.156266946903713</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X48">
-        <v>1.19556623049948</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y48">
-        <v>1.19676805996977</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z48">
-        <v>1.2</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA48">
-        <v>1.156879353902923</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB48">
         <v>-0.4</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>-0.4</v>
       </c>
-      <c r="BA48">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>1.300659567884719</v>
-      </c>
-      <c r="S49">
-        <v>1.240888932442107</v>
-      </c>
       <c r="T49">
-        <v>1.221968567548924</v>
+        <v>1.18378296183664</v>
       </c>
       <c r="U49">
-        <v>1.276971220672154</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V49">
-        <v>1.217426712276051</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W49">
-        <v>1.156334506046548</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X49">
-        <v>1.195671426878249</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y49">
-        <v>1.096871564713766</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z49">
-        <v>1.1</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA49">
-        <v>1.096182784556717</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB49">
-        <v>1.1</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC49">
         <v>0.8963263664365542</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.8963263664365542</v>
       </c>
-      <c r="BA49">
-        <v>0.8963263664365542</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>1.300659567884719</v>
-      </c>
-      <c r="S50">
-        <v>1.240888932442107</v>
-      </c>
-      <c r="T50">
-        <v>1.221968567548924</v>
-      </c>
       <c r="U50">
-        <v>1.276971220672154</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V50">
-        <v>1.217464501955263</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W50">
-        <v>1.156401989941273</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X50">
-        <v>1.195776476326287</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y50">
-        <v>1.096975024672744</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z50">
-        <v>1.1</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA50">
-        <v>1.096287219866653</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB50">
-        <v>1.1</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC50">
-        <v>1.054739260560808</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD50">
         <v>1.055400706275506</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>1.055400706275506</v>
       </c>
-      <c r="BA50">
-        <v>1.055400706275506</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>1.300659567884719</v>
-      </c>
-      <c r="S51">
-        <v>1.240888932442107</v>
-      </c>
-      <c r="T51">
-        <v>1.221968567548924</v>
-      </c>
       <c r="U51">
-        <v>1.276971220672154</v>
+        <v>1.280742742916294</v>
       </c>
       <c r="V51">
-        <v>1.295492327982646</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W51">
-        <v>1.252631370791587</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X51">
-        <v>1.263078841126773</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y51">
-        <v>0.8964806844506086</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z51">
-        <v>0.9</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA51">
-        <v>0.8940832001503622</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB51">
-        <v>0.9</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC51">
-        <v>0.9386326127426514</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD51">
-        <v>1.054937875620226</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE51">
         <v>-0.4303992348575321</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>-0.4303992348575321</v>
       </c>
-      <c r="BA51">
-        <v>-0.4303992348575321</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>1.300659567884719</v>
-      </c>
-      <c r="S52">
-        <v>1.240888932442107</v>
-      </c>
-      <c r="T52">
-        <v>1.221968567548924</v>
-      </c>
-      <c r="U52">
-        <v>1.276971220672154</v>
-      </c>
       <c r="V52">
-        <v>1.295492327982646</v>
+        <v>1.360489536766693</v>
       </c>
       <c r="W52">
-        <v>1.252631370791587</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X52">
-        <v>1.263078841126773</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y52">
-        <v>0.8969416744211145</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z52">
-        <v>0.9</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA52">
-        <v>0.8955500796694196</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB52">
-        <v>0.9</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC52">
-        <v>0.9384846269337999</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD52">
-        <v>0.9384664268683167</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE52">
-        <v>-1.27022812579925</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF52">
         <v>-14.5</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>-14.5</v>
       </c>
-      <c r="BA52">
-        <v>-14.5</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>1.221968567548924</v>
-      </c>
-      <c r="U53">
-        <v>1.276971220672154</v>
-      </c>
-      <c r="V53">
-        <v>1.295492327982646</v>
-      </c>
       <c r="W53">
-        <v>1.252631370791587</v>
+        <v>1.343680898844717</v>
       </c>
       <c r="X53">
-        <v>1.263078841126773</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y53">
-        <v>0.897045239457924</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z53">
-        <v>0.9</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA53">
-        <v>0.895655611442109</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB53">
-        <v>0.9</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC53">
-        <v>0.9384890173785152</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD53">
-        <v>0.9384708221732865</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE53">
-        <v>3.476645104916471</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF53">
-        <v>7.2</v>
+        <v>7.96955251685678</v>
       </c>
       <c r="AG53">
         <v>7.96955251685678</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>7.96955251685678</v>
       </c>
-      <c r="BA53">
-        <v>7.96955251685678</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>1.221968567548924</v>
-      </c>
-      <c r="U54">
-        <v>1.276971220672154</v>
-      </c>
-      <c r="V54">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W54">
-        <v>1.252631370791587</v>
-      </c>
       <c r="X54">
-        <v>1.263078841126773</v>
+        <v>1.325034253450106</v>
       </c>
       <c r="Y54">
-        <v>0.8971486565941547</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z54">
-        <v>0.9</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA54">
-        <v>0.8957609954104413</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB54">
-        <v>0.9</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC54">
-        <v>0.9384934066497976</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD54">
-        <v>0.9384752163051928</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE54">
-        <v>1.099999999999994</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF54">
-        <v>4.8</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG54">
-        <v>3.827676688284186</v>
+        <v>2.117788110998191</v>
       </c>
       <c r="AH54">
         <v>2.117788110998191</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>2.117788110998191</v>
       </c>
-      <c r="BA54">
-        <v>2.117788110998191</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>1.221968567548924</v>
-      </c>
-      <c r="U55">
-        <v>1.276971220672154</v>
-      </c>
-      <c r="V55">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W55">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X55">
-        <v>1.263078841126773</v>
-      </c>
       <c r="Y55">
-        <v>1.0486924458966</v>
+        <v>1.289790518173576</v>
       </c>
       <c r="Z55">
-        <v>0.9576058203620577</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA55">
-        <v>1.071236701815677</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB55">
-        <v>0.9181967773158146</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC55">
-        <v>0.8997408759775709</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD55">
-        <v>1.014701083534135</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE55">
-        <v>1.128212149305213</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF55">
-        <v>2.5</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG55">
-        <v>2.333971758100887</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH55">
-        <v>0.6610065710979711</v>
+        <v>-0.9861240056009706</v>
       </c>
       <c r="AI55">
         <v>-0.9861240056009706</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>-0.9861240056009706</v>
       </c>
-      <c r="BA55">
-        <v>-0.9861240056009706</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>1.221968567548924</v>
-      </c>
-      <c r="U56">
-        <v>1.276971220672154</v>
-      </c>
-      <c r="V56">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W56">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X56">
-        <v>1.263078841126773</v>
-      </c>
-      <c r="Y56">
-        <v>1.0486924458966</v>
-      </c>
       <c r="Z56">
-        <v>0.9576058203620577</v>
+        <v>1.245846892435697</v>
       </c>
       <c r="AA56">
-        <v>1.071236701815677</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB56">
-        <v>0.9181967773158146</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC56">
-        <v>0.9000000000000057</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD56">
-        <v>0.8999999999999915</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE56">
-        <v>0.9000000000000057</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF56">
-        <v>1.9</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG56">
-        <v>2.179991183471074</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH56">
-        <v>2.431647180969904</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI56">
-        <v>2.159621696530635</v>
+        <v>2.876944405321424</v>
       </c>
       <c r="AJ56">
         <v>2.876944405321424</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>2.876944405321424</v>
       </c>
-      <c r="BA56">
-        <v>2.876944405321424</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W57">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X57">
-        <v>1.263078841126773</v>
-      </c>
-      <c r="Y57">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z57">
-        <v>0.9576058203620577</v>
-      </c>
       <c r="AA57">
-        <v>1.071236701815677</v>
+        <v>1.356437849389455</v>
       </c>
       <c r="AB57">
-        <v>0.9181967773158146</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999631</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD57">
-        <v>0.8999999999999915</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE57">
-        <v>0.8999999999999488</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF57">
-        <v>0.9</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG57">
-        <v>1.694724769284434</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH57">
-        <v>3.775318678068402</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI57">
-        <v>4.732906757938665</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ57">
-        <v>4.392337843875254</v>
+        <v>0.4364757668776207</v>
       </c>
       <c r="AK57">
         <v>0.4364757668776207</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>0.4364757668776207</v>
       </c>
-      <c r="BA57">
-        <v>0.4364757668776207</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W58">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X58">
-        <v>1.263078841126773</v>
-      </c>
-      <c r="Y58">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z58">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA58">
-        <v>1.071236701815677</v>
-      </c>
       <c r="AB58">
-        <v>0.9181967773158146</v>
+        <v>1.193098383666129</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999915</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD58">
-        <v>0.8999999999999915</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE58">
-        <v>0.9000000000000057</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF58">
-        <v>0.9</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG58">
-        <v>1.505722646161871</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH58">
-        <v>2.366934917262256</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI58">
-        <v>2.822664617413935</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ58">
-        <v>2.125104309773619</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK58">
-        <v>2.937471668522804</v>
+        <v>0.6542354095451515</v>
       </c>
       <c r="AL58">
         <v>0.6542354095451515</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>0.6542354095451515</v>
       </c>
-      <c r="BA58">
-        <v>0.6542354095451515</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W59">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X59">
-        <v>1.263078841126773</v>
-      </c>
-      <c r="Y59">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z59">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA59">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB59">
-        <v>0.9181967773158146</v>
-      </c>
       <c r="AC59">
-        <v>0.9304906166679657</v>
+        <v>1.152942534341759</v>
       </c>
       <c r="AD59">
-        <v>0.9536778497213192</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE59">
-        <v>0.8655956966276916</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF59">
-        <v>0.5221327837854528</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG59">
-        <v>1.102489650700704</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH59">
-        <v>1.407151286217001</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI59">
-        <v>1.351018198493989</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ59">
-        <v>1.286546376365166</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK59">
-        <v>1.70681906437467</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL59">
-        <v>0.4196958401716984</v>
+        <v>-1.358640149334988</v>
       </c>
       <c r="AM59">
         <v>-1.358640149334988</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>-1.358640149334988</v>
       </c>
-      <c r="BA59">
-        <v>-1.358640149334988</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>1.295492327982646</v>
-      </c>
-      <c r="W60">
-        <v>1.252631370791587</v>
-      </c>
-      <c r="X60">
-        <v>1.263078841126773</v>
-      </c>
-      <c r="Y60">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z60">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA60">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB60">
-        <v>0.9181967773158146</v>
-      </c>
-      <c r="AC60">
-        <v>0.9304906166679657</v>
-      </c>
       <c r="AD60">
-        <v>0.9536778497213192</v>
+        <v>1.094756154619572</v>
       </c>
       <c r="AE60">
-        <v>0.8655956966276916</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF60">
-        <v>0.5221327837854528</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG60">
-        <v>1.045803247682485</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH60">
-        <v>1.166680881783094</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI60">
-        <v>1.162636031458717</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ60">
-        <v>1.146327110056689</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK60">
-        <v>1.373143137638323</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL60">
-        <v>3.472627034519775</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM60">
-        <v>1.303307312459893</v>
+        <v>1.767346889326234</v>
       </c>
       <c r="AN60">
         <v>1.767346889326234</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>1.767346889326234</v>
       </c>
-      <c r="BA60">
-        <v>1.767346889326234</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z61">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA61">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB61">
-        <v>0.9181967773158146</v>
-      </c>
-      <c r="AC61">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD61">
-        <v>0.9536778497213192</v>
-      </c>
       <c r="AE61">
-        <v>0.8655956966276916</v>
+        <v>0.9185183195714792</v>
       </c>
       <c r="AF61">
-        <v>0.5221327837854528</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG61">
-        <v>0.9000000000000057</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH61">
-        <v>0.8999999999999915</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI61">
-        <v>1.04444180503269</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ61">
-        <v>1.035494239486283</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK61">
-        <v>1.03735321004126</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL61">
-        <v>2.515224040220957</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM61">
-        <v>1.793919882747446</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN61">
-        <v>1.492892505212055</v>
+        <v>0.1973819540654631</v>
       </c>
       <c r="AO61">
         <v>0.1973819540654631</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>0.1973819540654631</v>
       </c>
-      <c r="BA61">
-        <v>0.1973819540654631</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z62">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA62">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB62">
-        <v>0.9181967773158146</v>
-      </c>
-      <c r="AC62">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD62">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE62">
-        <v>0.8655956966276916</v>
-      </c>
       <c r="AF62">
-        <v>0.5221327837854528</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG62">
-        <v>0.8999999999999631</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH62">
-        <v>0.8999999999999631</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI62">
-        <v>0.8999999999999915</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ62">
-        <v>0.8999999999999915</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK62">
-        <v>0.9000000000000057</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL62">
-        <v>1.714462456866599</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM62">
-        <v>0.9111528790963348</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN62">
-        <v>0.9723439816732906</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO62">
-        <v>0.6244449766976032</v>
+        <v>-2.016521230865749</v>
       </c>
       <c r="AP62">
         <v>-2.016521230865749</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>-2.016521230865749</v>
       </c>
-      <c r="BA62">
-        <v>-2.016521230865749</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z63">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA63">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB63">
-        <v>0.9181967773158146</v>
-      </c>
-      <c r="AC63">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD63">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE63">
-        <v>0.8655956966276916</v>
-      </c>
       <c r="AF63">
-        <v>0.5221327837854528</v>
+        <v>-0.04683155987647965</v>
       </c>
       <c r="AG63">
-        <v>2.345993246054239</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH63">
-        <v>2.369608014325356</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI63">
-        <v>2.327450572912262</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ63">
-        <v>2.286397090713243</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK63">
-        <v>0.8935695826017991</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL63">
-        <v>1.088592867585561</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM63">
-        <v>0.877295877902597</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN63">
-        <v>0.8496313849858552</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO63">
-        <v>-0.03666510695784098</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP63">
-        <v>0.4358510060540368</v>
+        <v>-1.429923541452922</v>
       </c>
       <c r="AQ63">
         <v>-1.429923541452922</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>-1.429923541452922</v>
       </c>
-      <c r="BA63">
-        <v>-1.429923541452922</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>1.0486924458966</v>
-      </c>
-      <c r="Z64">
-        <v>0.9576058203620577</v>
-      </c>
-      <c r="AA64">
-        <v>1.071236701815677</v>
-      </c>
-      <c r="AB64">
-        <v>0.9181967773158146</v>
-      </c>
-      <c r="AC64">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD64">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE64">
-        <v>0.8655956966276916</v>
-      </c>
-      <c r="AF64">
-        <v>0.5221327837854528</v>
-      </c>
       <c r="AG64">
-        <v>2.345993246054239</v>
+        <v>0.04906362388676442</v>
       </c>
       <c r="AH64">
-        <v>2.369608014325356</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI64">
-        <v>2.327450572912262</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ64">
-        <v>2.286397090713243</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK64">
-        <v>0.8999999999999915</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL64">
-        <v>0.8999999999999631</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM64">
-        <v>0.8999999999999915</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN64">
-        <v>0.8999999999999631</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO64">
-        <v>0.5229647859197541</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP64">
-        <v>1.023214123673924</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ64">
-        <v>1.115317906508452</v>
+        <v>0.1801827438520291</v>
       </c>
       <c r="AR64">
         <v>0.1801827438520291</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>0.1801827438520291</v>
       </c>
-      <c r="BA64">
-        <v>0.1801827438520291</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD65">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE65">
-        <v>0.8655956966276916</v>
-      </c>
-      <c r="AF65">
-        <v>0.5221327837854528</v>
-      </c>
-      <c r="AG65">
-        <v>2.345993246054239</v>
-      </c>
       <c r="AH65">
-        <v>2.369608014325356</v>
+        <v>-0.1571545970353902</v>
       </c>
       <c r="AI65">
-        <v>2.327450572912262</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ65">
-        <v>2.286397090713243</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK65">
-        <v>0.8999999999999915</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL65">
-        <v>0.9000000000000057</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM65">
-        <v>0.8999999999999631</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN65">
-        <v>0.8999999999999915</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO65">
-        <v>1.637894309132932</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP65">
-        <v>1.17676823170008</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ65">
-        <v>1.485276096267</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR65">
-        <v>0.6601344558201987</v>
+        <v>0.6692453970872521</v>
       </c>
       <c r="AS65">
         <v>0.6692453970872521</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>0.6692453970872521</v>
       </c>
-      <c r="BA65">
-        <v>0.6692453970872521</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD66">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE66">
-        <v>0.8655956966276916</v>
-      </c>
-      <c r="AF66">
-        <v>0.5221327837854528</v>
-      </c>
-      <c r="AG66">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH66">
-        <v>2.369608014325356</v>
-      </c>
       <c r="AI66">
-        <v>2.327450572912262</v>
+        <v>0.1005398434967522</v>
       </c>
       <c r="AJ66">
-        <v>2.286397090713243</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK66">
-        <v>0.8999999999999915</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL66">
-        <v>0.8999999999999915</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM66">
-        <v>0.8999999999999915</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN66">
-        <v>0.8999999999999915</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO66">
-        <v>1.523086876304319</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP66">
-        <v>1.099999999999994</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ66">
-        <v>1.331426978689578</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR66">
-        <v>1.276329126567163</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS66">
-        <v>0.6495984455928863</v>
+        <v>-1.33243152085096</v>
       </c>
       <c r="AT66">
         <v>-1.33243152085096</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>-1.33243152085096</v>
       </c>
-      <c r="BA66">
-        <v>-1.33243152085096</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD67">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE67">
-        <v>0.8655956966276916</v>
-      </c>
-      <c r="AF67">
-        <v>0.5221327837854528</v>
-      </c>
-      <c r="AG67">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH67">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI67">
-        <v>2.327450572912262</v>
-      </c>
       <c r="AJ67">
-        <v>2.286397090713243</v>
+        <v>-0.09640353676924271</v>
       </c>
       <c r="AK67">
-        <v>1.198483243005646</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL67">
-        <v>1.300131341578732</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM67">
-        <v>0.7317746979294</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN67">
-        <v>0.7514285788285164</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO67">
-        <v>1.441124882742528</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP67">
-        <v>1.023225446042673</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ67">
-        <v>1.250190461185639</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR67">
-        <v>1.626705876186179</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS67">
-        <v>0.7035190431450076</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT67">
-        <v>0.9275149032120851</v>
+        <v>-0.09168777270478756</v>
       </c>
       <c r="AU67">
         <v>-0.09168777270478756</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>-0.09168777270478756</v>
       </c>
-      <c r="BA67">
-        <v>-0.09168777270478756</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.9304906166679657</v>
-      </c>
-      <c r="AD68">
-        <v>0.9536778497213192</v>
-      </c>
-      <c r="AE68">
-        <v>0.8655956966276916</v>
-      </c>
-      <c r="AF68">
-        <v>0.5221327837854528</v>
-      </c>
-      <c r="AG68">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH68">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI68">
-        <v>2.327450572912262</v>
-      </c>
-      <c r="AJ68">
-        <v>2.286397090713243</v>
-      </c>
       <c r="AK68">
-        <v>1.198483243005646</v>
+        <v>0.009020004185272512</v>
       </c>
       <c r="AL68">
-        <v>1.300131341578732</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM68">
-        <v>0.7317746979294</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN68">
-        <v>0.7514285788285164</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO68">
-        <v>1.022281840489072</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP68">
-        <v>0.831363893125129</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ68">
-        <v>1.099999999999966</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR68">
-        <v>1.351061390119085</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS68">
-        <v>0.8634927817323899</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT68">
-        <v>1.160890030898216</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU68">
-        <v>0.5020459367003411</v>
+        <v>0.8481739611978583</v>
       </c>
       <c r="AV68">
         <v>0.8481739611978583</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>0.8481739611978583</v>
       </c>
-      <c r="BA68">
-        <v>0.8481739611978583</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH69">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI69">
-        <v>2.327450572912262</v>
-      </c>
-      <c r="AJ69">
-        <v>2.286397090713243</v>
-      </c>
-      <c r="AK69">
-        <v>1.198483243005646</v>
-      </c>
       <c r="AL69">
-        <v>1.300131341578732</v>
+        <v>-0.2164766473918817</v>
       </c>
       <c r="AM69">
-        <v>0.7317746979294</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN69">
-        <v>0.7514285788285164</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO69">
-        <v>1.022298982287893</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP69">
-        <v>0.8315806637672267</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ69">
-        <v>0.9465067181295694</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR69">
-        <v>1.200677642684028</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS69">
-        <v>0.9381661119426639</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT69">
-        <v>1.168328429083346</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU69">
-        <v>1.08645683165733</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV69">
-        <v>1.223847671557323</v>
+        <v>-0.2604183589432552</v>
       </c>
       <c r="AW69">
         <v>-0.2604183589432552</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>-0.2604183589432552</v>
       </c>
-      <c r="BA69">
-        <v>-0.2604183589432552</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH70">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI70">
-        <v>2.327450572912262</v>
-      </c>
-      <c r="AJ70">
-        <v>2.286397090713243</v>
-      </c>
-      <c r="AK70">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL70">
-        <v>1.300131341578732</v>
-      </c>
       <c r="AM70">
-        <v>0.7317746979294</v>
+        <v>-0.1452820290868089</v>
       </c>
       <c r="AN70">
-        <v>0.7514285788285164</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO70">
-        <v>1.022316133487493</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP70">
-        <v>0.8317978360804261</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ70">
-        <v>0.8315105086107621</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR70">
-        <v>0.8992489212806873</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS70">
-        <v>0.9009445305030255</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT70">
-        <v>1.131384303657796</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU70">
-        <v>1.130215775202473</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV70">
-        <v>1.298688101013951</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW70">
-        <v>0.5903841466431459</v>
+        <v>0.3093370292089048</v>
       </c>
       <c r="AX70">
         <v>0.3093370292089048</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.3093370292089048</v>
       </c>
-      <c r="BA70">
-        <v>0.3093370292089048</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH71">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI71">
-        <v>2.327450572912262</v>
-      </c>
-      <c r="AJ71">
-        <v>2.286397090713243</v>
-      </c>
-      <c r="AK71">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL71">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM71">
-        <v>0.7317746979294</v>
-      </c>
       <c r="AN71">
-        <v>0.7514285788285164</v>
+        <v>-0.08250391019450942</v>
       </c>
       <c r="AO71">
-        <v>0.8977129634169216</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP71">
-        <v>0.5434661923643204</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ71">
-        <v>0.4811165851137759</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR71">
-        <v>0.3945277338256162</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS71">
-        <v>0.9542554236588785</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT71">
-        <v>1.054890867235912</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU71">
-        <v>1.057124933357414</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV71">
-        <v>0.8493495992462954</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW71">
-        <v>0.6273189856793806</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX71">
-        <v>0.4548163684650035</v>
+        <v>-0.03180050048325711</v>
       </c>
       <c r="AY71">
         <v>-0.03180050048325711</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>-0.03180050048325711</v>
       </c>
-      <c r="BA71">
-        <v>-0.03180050048325711</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>2.345993246054239</v>
-      </c>
-      <c r="AH72">
-        <v>2.369608014325356</v>
-      </c>
-      <c r="AI72">
-        <v>2.327450572912262</v>
-      </c>
-      <c r="AJ72">
-        <v>2.286397090713243</v>
-      </c>
-      <c r="AK72">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL72">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM72">
-        <v>0.7317746979294</v>
-      </c>
-      <c r="AN72">
-        <v>0.7514285788285164</v>
-      </c>
       <c r="AO72">
-        <v>0.8977129634169216</v>
+        <v>1.165843966718916</v>
       </c>
       <c r="AP72">
-        <v>0.5434661923643204</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ72">
-        <v>0.4811165851137759</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR72">
-        <v>0.3945277338256162</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS72">
-        <v>0.952430630112417</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT72">
-        <v>1.04856113400362</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU72">
-        <v>1.049396224688508</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV72">
-        <v>0.6030605385354875</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW72">
-        <v>0.6544491143835103</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX72">
-        <v>0.5036751034916449</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY72">
-        <v>-0.0557622848368311</v>
+        <v>0.04735640278761366</v>
       </c>
       <c r="AZ72">
         <v>0.04735640278761366</v>
       </c>
-      <c r="BA72">
-        <v>0.04735640278761366</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL73">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM73">
-        <v>0.7317746979294</v>
-      </c>
-      <c r="AN73">
-        <v>0.7514285788285164</v>
-      </c>
-      <c r="AO73">
-        <v>0.8977129634169216</v>
-      </c>
       <c r="AP73">
-        <v>0.5434661923643204</v>
+        <v>0.2258963608879455</v>
       </c>
       <c r="AQ73">
-        <v>0.4811165851137759</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR73">
-        <v>0.3945277338256162</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS73">
-        <v>0.9525072717049454</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT73">
-        <v>1.048570582566526</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU73">
-        <v>1.049405937979557</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV73">
-        <v>0.4292059143450331</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW73">
-        <v>0.6549793445792602</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX73">
-        <v>0.6227962260762183</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY73">
-        <v>0.02869310752133458</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ73">
-        <v>0.2484998592622532</v>
-      </c>
-      <c r="BA73">
         <v>0.2461857363876589</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL74">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM74">
-        <v>0.7317746979294</v>
-      </c>
-      <c r="AN74">
-        <v>0.7514285788285164</v>
-      </c>
-      <c r="AO74">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP74">
-        <v>0.5434661923643204</v>
-      </c>
       <c r="AQ74">
-        <v>0.4811165851137759</v>
+        <v>0.03213582417332925</v>
       </c>
       <c r="AR74">
-        <v>0.3945277338256162</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS74">
-        <v>0.9525839854089355</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT74">
-        <v>1.048580034201876</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU74">
-        <v>1.049415654268572</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV74">
-        <v>0.4296829547481167</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW74">
-        <v>0.72440846069955</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX74">
-        <v>0.620532056680716</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY74">
-        <v>0.02882787556931987</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ74">
-        <v>0.1306996272112997</v>
-      </c>
-      <c r="BA74">
-        <v>0.1304982336044702</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL75">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM75">
-        <v>0.7317746979294</v>
-      </c>
-      <c r="AN75">
-        <v>0.7514285788285164</v>
-      </c>
-      <c r="AO75">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP75">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ75">
-        <v>0.4811165851137759</v>
-      </c>
       <c r="AR75">
-        <v>0.3945277338256162</v>
+        <v>0.1976727644421515</v>
       </c>
       <c r="AS75">
-        <v>0.8536743620888402</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT75">
-        <v>0.7925534161095669</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU75">
-        <v>0.61691873973857</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV75">
-        <v>0.4927134844175569</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW75">
-        <v>0.7225176544849035</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX75">
-        <v>0.5431897180081506</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY75">
-        <v>0.06300708450208958</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ75">
-        <v>0.1331592842769993</v>
-      </c>
-      <c r="BA75">
-        <v>0.1339413531246123</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>1.198483243005646</v>
-      </c>
-      <c r="AL76">
-        <v>1.300131341578732</v>
-      </c>
-      <c r="AM76">
-        <v>0.7317746979294</v>
-      </c>
-      <c r="AN76">
-        <v>0.7514285788285164</v>
-      </c>
-      <c r="AO76">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP76">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ76">
-        <v>0.4811165851137759</v>
-      </c>
-      <c r="AR76">
-        <v>0.3945277338256162</v>
-      </c>
       <c r="AS76">
-        <v>0.8536743620888402</v>
+        <v>-0.2232648281750869</v>
       </c>
       <c r="AT76">
-        <v>0.7925534161095669</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU76">
-        <v>0.61691873973857</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV76">
-        <v>0.4927134844175569</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW76">
-        <v>0.6931904332439558</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX76">
-        <v>0.5224186311050261</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY76">
-        <v>0.0619816864858791</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ76">
-        <v>0.1336723976959462</v>
-      </c>
-      <c r="BA76">
-        <v>0.1340385550214762</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP77">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ77">
-        <v>0.4811165851137759</v>
-      </c>
-      <c r="AR77">
-        <v>0.3945277338256162</v>
-      </c>
-      <c r="AS77">
-        <v>0.8536743620888402</v>
-      </c>
       <c r="AT77">
-        <v>0.7925534161095669</v>
+        <v>-0.2760811821333277</v>
       </c>
       <c r="AU77">
-        <v>0.61691873973857</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV77">
-        <v>0.4927134844175569</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW77">
-        <v>0.6245091109453114</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX77">
-        <v>0.4977709620334281</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY77">
-        <v>0.09621262140491638</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ77">
-        <v>0.1337947716483825</v>
-      </c>
-      <c r="BA77">
-        <v>0.1341612659972071</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP78">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ78">
-        <v>0.4811165851137759</v>
-      </c>
-      <c r="AR78">
-        <v>0.3945277338256162</v>
-      </c>
-      <c r="AS78">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT78">
-        <v>0.7925534161095669</v>
-      </c>
       <c r="AU78">
-        <v>0.61691873973857</v>
+        <v>-0.2566873269680571</v>
       </c>
       <c r="AV78">
-        <v>0.4927134844175569</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW78">
-        <v>0.5560624917002883</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX78">
-        <v>0.4980128290566626</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY78">
-        <v>0.09640850212197449</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ78">
-        <v>0.1339172585360586</v>
-      </c>
-      <c r="BA78">
-        <v>0.1342840893205448</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP79">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ79">
-        <v>0.4811165851137759</v>
-      </c>
-      <c r="AR79">
-        <v>0.3945277338256162</v>
-      </c>
-      <c r="AS79">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT79">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU79">
-        <v>0.61691873973857</v>
-      </c>
       <c r="AV79">
-        <v>0.4927134844175569</v>
+        <v>-0.1468651479288837</v>
       </c>
       <c r="AW79">
-        <v>0.5587401383416051</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX79">
-        <v>0.43121305651825</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY79">
-        <v>0.03364867625510754</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ79">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA79">
-        <v>0.2265277852829399</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.8977129634169216</v>
-      </c>
-      <c r="AP80">
-        <v>0.5434661923643204</v>
-      </c>
-      <c r="AQ80">
-        <v>0.4811165851137759</v>
-      </c>
-      <c r="AR80">
-        <v>0.3945277338256162</v>
-      </c>
-      <c r="AS80">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT80">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU80">
-        <v>0.61691873973857</v>
-      </c>
-      <c r="AV80">
-        <v>0.4927134844175569</v>
-      </c>
       <c r="AW80">
-        <v>0.5587401383416051</v>
+        <v>-0.2926661339406166</v>
       </c>
       <c r="AX80">
-        <v>0.43121305651825</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY80">
-        <v>0.03364867625510754</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ80">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA80">
-        <v>0.2256805165144868</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT81">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU81">
-        <v>0.61691873973857</v>
-      </c>
-      <c r="AV81">
-        <v>0.4927134844175569</v>
-      </c>
-      <c r="AW81">
-        <v>0.5587401383416051</v>
-      </c>
       <c r="AX81">
-        <v>0.43121305651825</v>
+        <v>-0.3155843793954887</v>
       </c>
       <c r="AY81">
-        <v>0.03364867625510754</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ81">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA81">
-        <v>0.2945183797551323</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT82">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU82">
-        <v>0.61691873973857</v>
-      </c>
-      <c r="AV82">
-        <v>0.4927134844175569</v>
-      </c>
-      <c r="AW82">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX82">
-        <v>0.43121305651825</v>
-      </c>
       <c r="AY82">
-        <v>0.03364867625510754</v>
+        <v>-0.1091966160301524</v>
       </c>
       <c r="AZ82">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA82">
-        <v>0.2947120273256303</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT83">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU83">
-        <v>0.61691873973857</v>
-      </c>
-      <c r="AV83">
-        <v>0.4927134844175569</v>
-      </c>
-      <c r="AW83">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX83">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY83">
-        <v>0.03364867625510754</v>
-      </c>
       <c r="AZ83">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA83">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.8536743620888402</v>
-      </c>
-      <c r="AT84">
-        <v>0.7925534161095669</v>
-      </c>
-      <c r="AU84">
-        <v>0.61691873973857</v>
-      </c>
-      <c r="AV84">
-        <v>0.4927134844175569</v>
-      </c>
-      <c r="AW84">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX84">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY84">
-        <v>0.03364867625510754</v>
-      </c>
-      <c r="AZ84">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA84">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX85">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY85">
-        <v>0.03364867625510754</v>
-      </c>
-      <c r="AZ85">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA85">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX86">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY86">
-        <v>0.03364867625510754</v>
-      </c>
-      <c r="AZ86">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA86">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX87">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY87">
-        <v>0.03364867625510754</v>
-      </c>
-      <c r="AZ87">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA87">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.5587401383416051</v>
-      </c>
-      <c r="AX88">
-        <v>0.43121305651825</v>
-      </c>
-      <c r="AY88">
-        <v>0.03364867625510754</v>
-      </c>
-      <c r="AZ88">
-        <v>0.09782177712009457</v>
-      </c>
-      <c r="BA88">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.1954547942334159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.1954547942334159</v>
+        <v>0.0584143117539057</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG64">
-        <v>7.96955251685678</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH64">
         <v>9.059011788180499</v>
@@ -9316,10 +9316,10 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG65">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH65">
-        <v>2.117788110998191</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI65">
         <v>3.706510317809929</v>
@@ -9405,13 +9405,13 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG66">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH66">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI66">
-        <v>-0.9861240056009706</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ66">
         <v>3.812938874122935</v>
@@ -9491,16 +9491,16 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG67">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH67">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI67">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ67">
-        <v>2.876944405321424</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK67">
         <v>2.06422287650885</v>
@@ -9574,19 +9574,19 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG68">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH68">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI68">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ68">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK68">
-        <v>0.4364757668776207</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL68">
         <v>-0.5616043219123981</v>
@@ -9654,22 +9654,22 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG69">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH69">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI69">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ69">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK69">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL69">
-        <v>0.6542354095451515</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM69">
         <v>5.081974971976663</v>
@@ -9731,25 +9731,25 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG70">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH70">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI70">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ70">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK70">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL70">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM70">
-        <v>-1.358640149334988</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN70">
         <v>0.9282314708180905</v>
@@ -9805,28 +9805,28 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG71">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH71">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI71">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ71">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK71">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL71">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM71">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN71">
-        <v>1.767346889326234</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO71">
         <v>1.594077990749781</v>
@@ -9876,31 +9876,31 @@
         <v>0.4160405413934812</v>
       </c>
       <c r="AG72">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH72">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI72">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ72">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK72">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL72">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM72">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN72">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO72">
-        <v>0.1973819540654631</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP72">
         <v>2.351141586996604</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.5658341660580097</v>
+        <v>-1.399538119075664</v>
       </c>
       <c r="AH73">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI73">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ73">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK73">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL73">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM73">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN73">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO73">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP73">
-        <v>-2.016521230865749</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ73">
         <v>-1.338086018914467</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.5658341660580097</v>
-      </c>
       <c r="AH74">
-        <v>-0.3908468871879727</v>
+        <v>-0.4399079395579157</v>
       </c>
       <c r="AI74">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ74">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK74">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL74">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM74">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN74">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO74">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP74">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ74">
-        <v>-1.429923541452922</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR74">
         <v>-0.9048896879718455</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>-0.3908468871879727</v>
-      </c>
       <c r="AI75">
-        <v>-0.4625748352565006</v>
+        <v>-0.2522352614119786</v>
       </c>
       <c r="AJ75">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK75">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL75">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM75">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN75">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO75">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP75">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ75">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR75">
-        <v>0.1801827438520291</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS75">
         <v>-0.008074312324168886</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>-0.4625748352565006</v>
-      </c>
       <c r="AJ76">
-        <v>0.2074162331263688</v>
+        <v>-0.01502673657128262</v>
       </c>
       <c r="AK76">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL76">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM76">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN76">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO76">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP76">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ76">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR76">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS76">
-        <v>0.6692453970872521</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT76">
         <v>-1.274764871858835</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.2074162331263688</v>
-      </c>
       <c r="AK77">
-        <v>0.07336433250825536</v>
+        <v>0.1697167558204933</v>
       </c>
       <c r="AL77">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM77">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN77">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO77">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP77">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ77">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR77">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS77">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT77">
-        <v>-1.33243152085096</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU77">
         <v>-1.68178591590852</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.07336433250825536</v>
-      </c>
       <c r="AL78">
-        <v>0.07224177270020711</v>
+        <v>-0.02318176825430802</v>
       </c>
       <c r="AM78">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN78">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO78">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP78">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ78">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR78">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS78">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT78">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU78">
-        <v>-0.09168777270478756</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV78">
         <v>0.6150207087151358</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.07224177270020711</v>
-      </c>
       <c r="AM79">
-        <v>0.4801758758343659</v>
+        <v>0.5860398907678647</v>
       </c>
       <c r="AN79">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO79">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP79">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ79">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR79">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS79">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT79">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU79">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV79">
-        <v>0.8481739611978583</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW79">
         <v>0.0262228489182661</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.4801758758343659</v>
-      </c>
       <c r="AN80">
-        <v>0.7791012112947258</v>
+        <v>0.6123665223621024</v>
       </c>
       <c r="AO80">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP80">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ80">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR80">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS80">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT80">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU80">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV80">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW80">
-        <v>-0.2604183589432552</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX80">
         <v>0.1551023335685926</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.7791012112947258</v>
-      </c>
       <c r="AO81">
-        <v>0.8438314324133401</v>
+        <v>0.7102051599614001</v>
       </c>
       <c r="AP81">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ81">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR81">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS81">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT81">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU81">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV81">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW81">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX81">
-        <v>0.3093370292089048</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY81">
         <v>0.547850509038426</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.8438314324133401</v>
-      </c>
       <c r="AP82">
-        <v>2.563815522469167</v>
+        <v>1.076976582906998</v>
       </c>
       <c r="AQ82">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR82">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS82">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT82">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU82">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV82">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW82">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX82">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY82">
-        <v>-0.03180050048325711</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ82">
         <v>1.074806962785573</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>2.563815522469167</v>
-      </c>
       <c r="AQ83">
-        <v>1.508122480575091</v>
+        <v>2.573586345613691</v>
       </c>
       <c r="AR83">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS83">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT83">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU83">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV83">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW83">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX83">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY83">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ83">
-        <v>0.04735640278761366</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA83">
         <v>1.642262942687253</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>1.508122480575091</v>
-      </c>
       <c r="AR84">
-        <v>1.26570762182784</v>
+        <v>1.5760248814254</v>
       </c>
       <c r="AS84">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT84">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU84">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV84">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW84">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX84">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY84">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ84">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA84">
-        <v>0.2461857363876589</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>1.26570762182784</v>
-      </c>
       <c r="AS85">
-        <v>0.8154641457393907</v>
+        <v>1.191798046732893</v>
       </c>
       <c r="AT85">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU85">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV85">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW85">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX85">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY85">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ85">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA85">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.8154641457393907</v>
-      </c>
       <c r="AT86">
-        <v>0.1806641506690383</v>
+        <v>0.5648766374755482</v>
       </c>
       <c r="AU86">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV86">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW86">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX86">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY86">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ86">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA86">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.1806641506690383</v>
-      </c>
       <c r="AU87">
-        <v>0.1568513725531105</v>
+        <v>0.1222096681257085</v>
       </c>
       <c r="AV87">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW87">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX87">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY87">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ87">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA87">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.1568513725531105</v>
-      </c>
       <c r="AV88">
-        <v>-0.01146351139904307</v>
+        <v>0.3144172688537707</v>
       </c>
       <c r="AW88">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX88">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY88">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ88">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA88">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>-0.01146351139904307</v>
-      </c>
       <c r="AW89">
-        <v>-0.1359177401019807</v>
+        <v>-0.07144594764179994</v>
       </c>
       <c r="AX89">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY89">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ89">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA89">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-0.1359177401019807</v>
-      </c>
       <c r="AX90">
-        <v>-0.1523557985823829</v>
+        <v>0.04450714227631634</v>
       </c>
       <c r="AY90">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ90">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA90">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>-0.1523557985823829</v>
-      </c>
       <c r="AY91">
-        <v>-0.3317787552704274</v>
+        <v>-0.07784336940060251</v>
       </c>
       <c r="AZ91">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA91">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.3317787552704274</v>
-      </c>
       <c r="AZ92">
-        <v>-0.1534377815149796</v>
+        <v>-0.3980925118192234</v>
       </c>
       <c r="BA92">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.1534377815149796</v>
-      </c>
       <c r="BA93">
-        <v>0.1947280439613919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.1947280439613919</v>
+        <v>0.05854506309727294</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>0.04899821040007168</v>
       </c>
+      <c r="BB2">
+        <v>0.04899821040007168</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>1.885178963001849</v>
       </c>
+      <c r="BB3">
+        <v>1.885178963001849</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>-1.307280175329765</v>
       </c>
+      <c r="BB4">
+        <v>-1.307280175329765</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>2.75267136845396</v>
       </c>
+      <c r="BB5">
+        <v>2.75267136845396</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-4.471592960313714</v>
       </c>
+      <c r="BB6">
+        <v>-4.471592960313714</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-4.942495347902479</v>
       </c>
+      <c r="BB7">
+        <v>-4.942495347902479</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>-5.434114574907241</v>
       </c>
+      <c r="BB8">
+        <v>-5.434114574907241</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>4.370618442157621</v>
       </c>
+      <c r="BB9">
+        <v>4.370618442157621</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>-0.9953340506219917</v>
       </c>
+      <c r="BB10">
+        <v>-0.9953340506219917</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>5.692238679293155</v>
       </c>
+      <c r="BB11">
+        <v>5.692238679293155</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>5.484876523251003</v>
       </c>
+      <c r="BB12">
+        <v>5.484876523251003</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>0.1757137213762547</v>
       </c>
+      <c r="BB13">
+        <v>0.1757137213762547</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>1.626538719806248</v>
       </c>
+      <c r="BB14">
+        <v>1.626538719806248</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>2.437334396728659</v>
       </c>
+      <c r="BB15">
+        <v>2.437334396728659</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>1.566144859651857</v>
       </c>
+      <c r="BB16">
+        <v>1.566144859651857</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>1.556824096124856</v>
       </c>
+      <c r="BB17">
+        <v>1.556824096124856</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>0.21169683169569</v>
       </c>
+      <c r="BB18">
+        <v>0.21169683169569</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>0.1582599013804469</v>
       </c>
+      <c r="BB19">
+        <v>0.1582599013804469</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>-0.3253450194449812</v>
       </c>
+      <c r="BB20">
+        <v>-0.3253450194449812</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>-0.15853729477206</v>
       </c>
+      <c r="BB21">
+        <v>-0.15853729477206</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>0.2054976683197225</v>
       </c>
+      <c r="BB22">
+        <v>0.2054976683197225</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0.9595582875050894</v>
       </c>
+      <c r="BB23">
+        <v>0.9595582875050894</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>1.503966953576466</v>
       </c>
+      <c r="BB24">
+        <v>1.503966953576466</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>1.799837015295822</v>
       </c>
+      <c r="BB25">
+        <v>1.799837015295822</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.6518403676065248</v>
       </c>
+      <c r="BB26">
+        <v>0.6518403676065248</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>0.6633823054011998</v>
       </c>
+      <c r="BB27">
+        <v>0.6633823054011998</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>0.923139910942723</v>
       </c>
+      <c r="BB28">
+        <v>0.923139910942723</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>0.3869820931359413</v>
       </c>
+      <c r="BB29">
+        <v>0.3869820931359413</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>2.093916965767463</v>
       </c>
+      <c r="BB30">
+        <v>2.093916965767463</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>1.580888475204972</v>
       </c>
+      <c r="BB31">
+        <v>1.580888475204972</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>0.3008043112709089</v>
       </c>
+      <c r="BB32">
+        <v>0.3008043112709089</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>1.199598313222268</v>
       </c>
+      <c r="BB33">
+        <v>1.199598313222268</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>0.4774400648527148</v>
       </c>
+      <c r="BB34">
+        <v>0.4774400648527148</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>1.507463254996111</v>
       </c>
+      <c r="BB35">
+        <v>1.507463254996111</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0.2179116434425623</v>
       </c>
+      <c r="BB36">
+        <v>0.2179116434425623</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>0.6120689161334525</v>
       </c>
+      <c r="BB37">
+        <v>0.6120689161334525</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>2.489390679284554</v>
       </c>
+      <c r="BB38">
+        <v>2.489390679284554</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>0.5389418434166515</v>
       </c>
+      <c r="BB39">
+        <v>0.5389418434166515</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>2.40118094791471</v>
       </c>
+      <c r="BB40">
+        <v>2.40118094791471</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>1.043009620608657</v>
       </c>
+      <c r="BB41">
+        <v>1.043009620608657</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>1.830928398766659</v>
       </c>
+      <c r="BB42">
+        <v>1.830928398766659</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>-0.3674870133197601</v>
       </c>
+      <c r="BB43">
+        <v>-0.3674870133197601</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>1.62717758729876</v>
       </c>
+      <c r="BB44">
+        <v>1.62717758729876</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>1.117271732844245</v>
       </c>
+      <c r="BB45">
+        <v>1.117271732844245</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>0.6525147083449099</v>
       </c>
+      <c r="BB46">
+        <v>0.6525147083449099</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>1.4</v>
       </c>
+      <c r="BB47">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>-0.3</v>
       </c>
+      <c r="BB48">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>-0.3</v>
       </c>
+      <c r="BB49">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>-1.138880770453937</v>
       </c>
+      <c r="BB51">
+        <v>-1.138880770453937</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-16.88491062648744</v>
       </c>
+      <c r="BB52">
+        <v>-16.88491062648744</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>9.224715108933083</v>
       </c>
+      <c r="BB53">
+        <v>9.224715108933083</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>3.283355339827622</v>
       </c>
+      <c r="BB54">
+        <v>3.283355339827622</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>4.432584407022276</v>
       </c>
+      <c r="BB55">
+        <v>4.432584407022276</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>2.509693347214139</v>
       </c>
+      <c r="BB56">
+        <v>2.509693347214139</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-0.4381048169788073</v>
       </c>
+      <c r="BB57">
+        <v>-0.4381048169788073</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>4.106981763725997</v>
       </c>
+      <c r="BB58">
+        <v>4.106981763725997</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>0.3842995656585515</v>
       </c>
+      <c r="BB59">
+        <v>0.3842995656585515</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>2.277966437795897</v>
       </c>
+      <c r="BB60">
+        <v>2.277966437795897</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>2.507553358214992</v>
       </c>
+      <c r="BB61">
+        <v>2.507553358214992</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>-2.399190900254823</v>
       </c>
+      <c r="BB62">
+        <v>-2.399190900254823</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>-1.115644072253531</v>
       </c>
+      <c r="BB63">
+        <v>-1.115644072253531</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>0.1689348086957096</v>
       </c>
+      <c r="BB64">
+        <v>0.1689348086957096</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>-1.814969742946232</v>
       </c>
+      <c r="BB65">
+        <v>-1.814969742946232</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>-1.586779238813989</v>
       </c>
+      <c r="BB66">
+        <v>-1.586779238813989</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>-0.2996177924633514</v>
       </c>
+      <c r="BB67">
+        <v>-0.2996177924633514</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>2.757652919539751</v>
       </c>
+      <c r="BB68">
+        <v>2.757652919539751</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>-0.08601690538415596</v>
       </c>
+      <c r="BB69">
+        <v>-0.08601690538415596</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>-0.6801011570971838</v>
       </c>
+      <c r="BB70">
+        <v>-0.6801011570971838</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>1.599728869008459</v>
       </c>
+      <c r="BB71">
+        <v>1.538981993999982</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB72">
+        <v>1.68501852020853</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB73">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB74">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB75">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB76">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB77">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB78">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB79">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB80">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>0.05854506309727294</v>
       </c>
+      <c r="BB81">
+        <v>0.1716413405801304</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.05854506309727294</v>
+      </c>
+      <c r="BB82">
+        <v>0.1716413405801304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.1716413405801304</v>
       </c>
     </row>
   </sheetData>
